--- a/上海地铁故障数据.xlsx
+++ b/上海地铁故障数据.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="336">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2747,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4993,19 +4993,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="112.5">
+    <row r="2" spans="1:8" ht="57">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="57">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="128.25">
+    <row r="4" spans="1:8" ht="71.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="128.25">
+    <row r="5" spans="1:8" ht="71.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25">
+    <row r="7" spans="1:8" ht="57">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="142.5">
+    <row r="8" spans="1:8" ht="71.25">
       <c r="A8" t="s">
         <v>305</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="128.25">
+    <row r="9" spans="1:8" ht="71.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="114">
+    <row r="10" spans="1:8" ht="57">
       <c r="A10" t="s">
         <v>319</v>
       </c>
@@ -5223,7 +5226,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5305,7 +5308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114">
+    <row r="4" spans="1:8" ht="42.75">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="114">
+    <row r="5" spans="1:8" ht="42.75">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="142.5">
+    <row r="6" spans="1:8" ht="57">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="114">
+    <row r="7" spans="1:8" ht="42.75">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -5397,7 +5400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="128.25">
+    <row r="8" spans="1:8" ht="57">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -5431,7 +5434,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5489,7 +5492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="57">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="142.5">
+    <row r="4" spans="1:8" ht="71.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="99.75">
+    <row r="5" spans="1:8" ht="57">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="128.25">
+    <row r="6" spans="1:8" ht="57">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25">
+    <row r="7" spans="1:8" ht="71.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="114">
+    <row r="8" spans="1:8" ht="57">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="114">
+    <row r="9" spans="1:8" ht="57">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="128.25">
+    <row r="10" spans="1:8" ht="71.25">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="128.25">
+    <row r="11" spans="1:8" ht="71.25">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="128.25">
+    <row r="12" spans="1:8" ht="57">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="114">
+    <row r="13" spans="1:8" ht="57">
       <c r="A13" t="s">
         <v>299</v>
       </c>
@@ -5756,7 +5759,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5792,7 +5795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128.25">
+    <row r="2" spans="1:8" ht="71.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -5847,19 +5850,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="114">
+    <row r="2" spans="1:8" ht="71.25">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -5893,7 +5899,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5914,19 +5920,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="114">
+    <row r="2" spans="1:8" ht="57">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5949,7 +5958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="57">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5972,7 +5981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114">
+    <row r="4" spans="1:8" ht="57">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5995,7 +6004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="114">
+    <row r="5" spans="1:8" ht="57">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="128.25">
+    <row r="6" spans="1:8" ht="57">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -6041,7 +6050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="111">
+    <row r="7" spans="1:8" ht="57">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -6064,7 +6073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="99.75">
+    <row r="8" spans="1:8" ht="42.75">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -6087,7 +6096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="128.25">
+    <row r="9" spans="1:8" ht="57">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -6110,7 +6119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="128.25">
+    <row r="10" spans="1:8" ht="57">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -6133,7 +6142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="99.75">
+    <row r="11" spans="1:8" ht="42.75">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -6156,7 +6165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="85.5">
+    <row r="12" spans="1:8" ht="42.75">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="99.75">
+    <row r="13" spans="1:8" ht="57">
       <c r="A13" t="s">
         <v>235</v>
       </c>
@@ -6237,19 +6246,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="114">
+    <row r="2" spans="1:8" ht="71.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.5">
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114">
+    <row r="4" spans="1:8" ht="71.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="128.25">
+    <row r="5" spans="1:8" ht="85.5">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="128.25">
+    <row r="6" spans="1:8" ht="85.5">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -6364,7 +6376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25">
+    <row r="7" spans="1:8" ht="85.5">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="114">
+    <row r="8" spans="1:8" ht="71.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -6410,7 +6422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="114">
+    <row r="9" spans="1:8" ht="71.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -6456,7 +6468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="142.5">
+    <row r="11" spans="1:8" ht="99.75">
       <c r="A11" t="s">
         <v>278</v>
       </c>
@@ -6479,7 +6491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="114">
+    <row r="12" spans="1:8" ht="71.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -6502,7 +6514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="128.25">
+    <row r="13" spans="1:8" ht="85.5">
       <c r="A13" t="s">
         <v>333</v>
       </c>
@@ -6558,19 +6570,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="112.5">
+    <row r="2" spans="1:8" ht="70.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6593,7 +6608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="71.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6616,7 +6631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114">
+    <row r="4" spans="1:8" ht="71.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -6639,7 +6654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="114">
+    <row r="5" spans="1:8" ht="71.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -6662,7 +6677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="99.75">
+    <row r="6" spans="1:8" ht="57">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -6685,7 +6700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25">
+    <row r="7" spans="1:8" ht="71.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -6708,7 +6723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="128.25">
+    <row r="8" spans="1:8" ht="85.5">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -6731,7 +6746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="142.5">
+    <row r="9" spans="1:8" ht="85.5">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -6754,7 +6769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="114">
+    <row r="10" spans="1:8" ht="71.25">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -6777,7 +6792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="114">
+    <row r="11" spans="1:8" ht="71.25">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -6800,7 +6815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="142.5">
+    <row r="12" spans="1:8" ht="85.5">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -6823,7 +6838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="114">
+    <row r="13" spans="1:8" ht="71.25">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -6846,7 +6861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="128.25">
+    <row r="14" spans="1:8" ht="85.5">
       <c r="A14" t="s">
         <v>329</v>
       </c>
@@ -6906,19 +6921,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128.25">
+    <row r="2" spans="1:8" ht="71.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -6941,7 +6959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="71.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -6964,7 +6982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="99.75">
+    <row r="4" spans="1:8" ht="57">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -6987,7 +7005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="142.5">
+    <row r="5" spans="1:8" ht="71.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -7010,7 +7028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="114">
+    <row r="6" spans="1:8" ht="71.25">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -7033,7 +7051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25">
+    <row r="7" spans="1:8" ht="71.25">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -7056,7 +7074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="128.25">
+    <row r="8" spans="1:8" ht="71.25">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="142.5">
+    <row r="9" spans="1:8" ht="85.5">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -7102,7 +7120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="156.75">
+    <row r="10" spans="1:8" ht="85.5">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -7125,7 +7143,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="128.25">
+    <row r="11" spans="1:8" ht="71.25">
       <c r="A11" t="s">
         <v>299</v>
       </c>
@@ -7183,19 +7201,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128.25">
+    <row r="2" spans="1:8" ht="85.5">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -7218,7 +7239,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="142.5">
+    <row r="3" spans="1:8" ht="85.5">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -7241,7 +7262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114">
+    <row r="4" spans="1:8" ht="85.5">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -7264,7 +7285,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="139.5">
+    <row r="5" spans="1:8" ht="98.25">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -7287,7 +7308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="153">
+    <row r="6" spans="1:8" ht="98.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -7328,6 +7349,7 @@
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7341,19 +7363,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128.25">
+    <row r="2" spans="1:8" ht="71.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -7376,7 +7401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="71.25">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -7431,19 +7456,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128.25">
+    <row r="2" spans="1:8" ht="85.5">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -7466,7 +7494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="128.25">
+    <row r="3" spans="1:8" ht="85.5">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -7489,7 +7517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="128.25">
+    <row r="4" spans="1:8" ht="85.5">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -7512,7 +7540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="128.25">
+    <row r="5" spans="1:8" ht="85.5">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -7535,7 +7563,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="114">
+    <row r="6" spans="1:8" ht="71.25">
       <c r="A6" t="s">
         <v>326</v>
       </c>
@@ -7590,19 +7618,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="142.5">
+    <row r="2" spans="1:8" ht="85.5">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -7625,7 +7656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="114">
+    <row r="3" spans="1:8" ht="71.25">
       <c r="A3" t="s">
         <v>271</v>
       </c>
@@ -7680,19 +7711,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="114">
+    <row r="2" spans="1:8" ht="71.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -7715,7 +7749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="142.5">
+    <row r="3" spans="1:8" ht="85.5">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -7738,7 +7772,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114">
+    <row r="4" spans="1:8" ht="71.25">
       <c r="A4" t="s">
         <v>259</v>
       </c>

--- a/上海地铁故障数据.xlsx
+++ b/上海地铁故障数据.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23700" windowHeight="9570" activeTab="14"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23700" windowHeight="9570" activeTab="17"/>
   </bookViews>
   <sheets>
-    <sheet name="Tongji" sheetId="4" r:id="rId1"/>
+    <sheet name="总数据" sheetId="4" r:id="rId1"/>
     <sheet name="Shanghai-1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="2" r:id="rId3"/>
     <sheet name="3" sheetId="3" r:id="rId4"/>
@@ -19,16 +19,19 @@
     <sheet name="9" sheetId="14" r:id="rId10"/>
     <sheet name="10" sheetId="5" r:id="rId11"/>
     <sheet name="11" sheetId="6" r:id="rId12"/>
-    <sheet name="16" sheetId="7" r:id="rId13"/>
-    <sheet name="17" sheetId="8" r:id="rId14"/>
-    <sheet name="浦江线" sheetId="15" r:id="rId15"/>
+    <sheet name="12" sheetId="17" r:id="rId13"/>
+    <sheet name="13" sheetId="18" r:id="rId14"/>
+    <sheet name="16" sheetId="7" r:id="rId15"/>
+    <sheet name="17" sheetId="8" r:id="rId16"/>
+    <sheet name="浦江线" sheetId="15" r:id="rId17"/>
+    <sheet name="统计数据" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="352">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2345,6 +2348,228 @@
   </si>
   <si>
     <t>【突发运营信息：1号线】目前，1号线因车门故障，衡山路往上海南站方向列车限速运行，发车班次间隔延长，预计晚点时间15分钟以上，其余区段列车也有所延误。请乘客们及时调整出行路径，以免耽误行程。</t>
+  </si>
+  <si>
+    <r>
+      <t>2号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11号线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦江线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障发生次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2458,6 +2683,261 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2018</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>年至今各线路发生故障的次数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17518509681239339"/>
+          <c:y val="2.3952095808383235E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>统计数据!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>故障发生次数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>统计数据!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1号线</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2号线</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3号线</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4号线</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5号线</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6号线</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7号线</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8号线</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9号线</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10号线</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11号线</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12号线</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13号线</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16号线</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17号线</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>浦江线</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计数据!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="83520128"/>
+        <c:axId val="83526016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83520128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" i="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83526016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83526016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83520128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2745,19 +3225,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6"/>
+    <col min="5" max="5" width="39.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2789,189 +3270,189 @@
     </row>
     <row r="2" spans="1:8" ht="126.75" customHeight="1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="116.25" customHeight="1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>0.43888888888888888</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.89722222222222225</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="71.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="114">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="71.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="114">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.86249999999999993</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="142.5">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="114">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.33263888888888887</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="128.25">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="117.75" customHeight="1">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>0.89722222222222225</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="114">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2994,44 +3475,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="142.5">
+    <row r="11" spans="1:8" ht="57">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2">
-        <v>0.32569444444444445</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="99.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="71.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>0.84097222222222223</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -3040,90 +3521,90 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="128.25">
+    <row r="13" spans="1:8" ht="71.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
-        <v>0.33611111111111108</v>
+        <v>0.33124999999999999</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="128.25">
+    <row r="14" spans="1:8" ht="71.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2">
-        <v>0.82291666666666663</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="114">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="71.25">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2">
-        <v>0.34930555555555554</v>
+        <v>0.68888888888888899</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>151</v>
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="114">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="71.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>0.30624999999999997</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
@@ -3132,435 +3613,435 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="128.25">
+    <row r="17" spans="1:8" ht="57">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2">
-        <v>0.37222222222222223</v>
+        <v>0.44930555555555557</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="128.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71.25">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2">
-        <v>0.71597222222222223</v>
+        <v>0.26180555555555557</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>151</v>
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="128.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.86249999999999993</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="114">
+    <row r="20" spans="1:8" ht="71.25">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2">
-        <v>0.34097222222222223</v>
+        <v>0.83194444444444438</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="128.25">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="71.25">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.32916666666666666</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="114">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2">
-        <v>0.92083333333333339</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>324</v>
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="114">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="85.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2">
-        <v>0.53611111111111109</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="71.25">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="57">
+      <c r="A26" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>0.32777777777777778</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="128.25">
-      <c r="A26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="128.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="71.25">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2">
-        <v>0.35902777777777778</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="128.25">
+    <row r="28" spans="1:8" ht="71.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2">
-        <v>0.3833333333333333</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="114">
+    <row r="29" spans="1:8" ht="71.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2">
-        <v>0.35555555555555557</v>
+        <v>0.37013888888888885</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="114">
+    <row r="30" spans="1:8" ht="71.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2">
-        <v>0.73472222222222217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>146</v>
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="108" customHeight="1">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2">
-        <v>0.35972222222222222</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="71.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="142.5">
-      <c r="A32" t="s">
-        <v>278</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.35972222222222222</v>
-      </c>
-      <c r="C32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="114">
+    <row r="33" spans="1:8" ht="85.5">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2">
-        <v>0.68680555555555556</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="C33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="128.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="71.25">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2">
-        <v>0.78611111111111109</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="C34" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="112.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="71.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>30</v>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>10</v>
@@ -3569,389 +4050,389 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="114">
+    <row r="36" spans="1:8" ht="56.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2">
-        <v>0.72083333333333333</v>
+        <v>0.74236111111111114</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="57">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2">
-        <v>0.63124999999999998</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="114">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="71.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+        <v>145</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="99.75">
+    <row r="39" spans="1:8" ht="71.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B39" s="2">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="71.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="128.25">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="128.25">
+    <row r="41" spans="1:8" ht="71.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="142.5">
+    <row r="42" spans="1:8" ht="57">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2">
-        <v>0.86805555555555547</v>
+        <v>0.36041666666666666</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
+        <v>162</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="114">
+    <row r="43" spans="1:8" ht="57">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2">
-        <v>0.36041666666666666</v>
+        <v>0.73472222222222217</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="71.25">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="114">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.24166666666666667</v>
-      </c>
-      <c r="C44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="5" t="s">
+    <row r="45" spans="1:8" ht="71.25">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="142.5">
-      <c r="A45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C45" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="114">
+      <c r="H45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="71.25">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="71.25">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="57">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="128.25">
-      <c r="A47" t="s">
-        <v>329</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.3430555555555555</v>
-      </c>
-      <c r="C47" t="s">
-        <v>330</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="128.25">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.32083333333333336</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="71.25">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="114">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.26180555555555557</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="H49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="99.75">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="57">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2">
-        <v>0.35000000000000003</v>
+        <v>0.84097222222222223</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="142.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="57">
       <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="71.25">
+      <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>0.27361111111111108</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="114">
-      <c r="A52" t="s">
-        <v>220</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="C52" t="s">
-        <v>226</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>16</v>
@@ -3960,159 +4441,159 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="128.25">
+    <row r="53" spans="1:8" ht="71.25">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B53" s="2">
-        <v>0.79375000000000007</v>
+        <v>0.27361111111111108</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="57">
+      <c r="A54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="128.25">
-      <c r="A54" t="s">
-        <v>253</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0.3444444444444445</v>
-      </c>
-      <c r="C54" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="142.5">
+    <row r="55" spans="1:8" ht="71.25">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="B55" s="2">
-        <v>0.28750000000000003</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="156.75">
+    <row r="56" spans="1:8" ht="71.25">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="B56" s="2">
-        <v>0.35138888888888892</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="128.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="71.25">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2">
-        <v>0.31458333333333333</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="C57" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="128.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="71.25">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="B58" s="2">
-        <v>0.35000000000000003</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="142.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="71.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B59" s="2">
-        <v>0.27361111111111108</v>
+        <v>0.84375</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>16</v>
@@ -4121,846 +4602,846 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="114">
+    <row r="60" spans="1:8" ht="57">
       <c r="A60" t="s">
         <v>220</v>
       </c>
       <c r="B60" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="71.25">
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="2">
         <v>0.40416666666666701</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="139.5">
-      <c r="A61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0.28750000000000003</v>
-      </c>
-      <c r="C61" t="s">
-        <v>284</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" t="s">
+    <row r="62" spans="1:8" ht="71.25">
+      <c r="A62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="153">
-      <c r="A62" t="s">
-        <v>312</v>
-      </c>
-      <c r="B62" s="2">
-        <v>0.39305555555555599</v>
-      </c>
-      <c r="C62" t="s">
-        <v>315</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" t="s">
+    <row r="63" spans="1:8" ht="71.25">
+      <c r="A63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="57">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="C64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="71.25">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="C65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="128.25">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s">
+    <row r="66" spans="1:8" ht="71.25">
+      <c r="A66" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="114">
-      <c r="A64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="2">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="C64" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="128.25">
-      <c r="A65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="128.25">
-      <c r="A66" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="C66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="128.25">
+    <row r="67" spans="1:8" ht="71.25">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2">
-        <v>0.87152777777777779</v>
+        <v>0.79375000000000007</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="128.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="71.25">
       <c r="A68" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B68" s="2">
-        <v>0.7368055555555556</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="71.25">
+      <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="C69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="71.25">
+      <c r="A70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="114">
-      <c r="A69" t="s">
-        <v>326</v>
-      </c>
-      <c r="B69" s="2">
-        <v>0.32569444444444445</v>
-      </c>
-      <c r="C69" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" s="1" t="s">
+    <row r="71" spans="1:8" ht="71.25">
+      <c r="A71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="71.25">
+      <c r="A72" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="C72" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="142.5">
-      <c r="A70" t="s">
-        <v>220</v>
-      </c>
-      <c r="B70" s="2">
-        <v>0.84375</v>
-      </c>
-      <c r="C70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="114">
-      <c r="A71" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" s="2">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="C71" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="114">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="2">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="C72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" t="s">
-        <v>123</v>
-      </c>
       <c r="E72" s="6" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="142.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="71.25">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="B73" s="2">
-        <v>0.35486111111111113</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="114">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="71.25">
       <c r="A74" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B74" s="2">
-        <v>0.73611111111111116</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="112.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="57">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="B75" s="2">
-        <v>0.34236111111111112</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" t="s">
-        <v>45</v>
+        <v>272</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="114">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="57">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="B76" s="2">
-        <v>0.44930555555555557</v>
+        <v>0.30624999999999997</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" t="s">
-        <v>45</v>
+        <v>276</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="128.25">
+    <row r="77" spans="1:8" ht="85.5">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="B77" s="2">
-        <v>0.35069444444444442</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="128.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="85.5">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="B78" s="2">
-        <v>0.3125</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>175</v>
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="144.75" customHeight="1">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="B79" s="2">
-        <v>0.3666666666666667</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="F79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="71.25">
+      <c r="A80" t="s">
+        <v>286</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="71.25">
+      <c r="A81" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="C81" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="128.25">
-      <c r="A80" t="s">
-        <v>239</v>
-      </c>
-      <c r="B80" s="2">
-        <v>0.33958333333333335</v>
-      </c>
-      <c r="C80" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="142.5">
-      <c r="A81" t="s">
-        <v>305</v>
-      </c>
-      <c r="B81" s="2">
-        <v>0.37638888888888888</v>
-      </c>
-      <c r="C81" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="H81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="128.25">
+    <row r="82" spans="1:8" ht="71.25">
       <c r="A82" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B82" s="2">
-        <v>0.3</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="71.25">
+      <c r="A83" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C83" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="71.25">
+      <c r="A84" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="71.25">
+      <c r="A85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C85" t="s">
+        <v>317</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="57">
+      <c r="A86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="C86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="85.5">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="71.25">
+      <c r="A88" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>310</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="114">
-      <c r="A83" t="s">
+    <row r="89" spans="1:8" ht="84.75">
+      <c r="A89" t="s">
+        <v>312</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.39305555555555599</v>
+      </c>
+      <c r="C89" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="85.5">
+      <c r="A90" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="C90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="57">
+      <c r="A91" t="s">
         <v>319</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B91" s="2">
         <v>0.26874999999999999</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C91" t="s">
         <v>320</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="114">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="2">
-        <v>0.78888888888888886</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="114">
-      <c r="A85" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="114">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="114">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="2">
-        <v>0.32916666666666666</v>
-      </c>
-      <c r="C87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="128.25">
-      <c r="A88" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="2">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="C88" t="s">
-        <v>133</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="111">
-      <c r="A89" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="2">
-        <v>0.74236111111111114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="99.75">
-      <c r="A90" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="128.25">
-      <c r="A91" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="2">
-        <v>0.50902777777777775</v>
-      </c>
-      <c r="C91" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="128.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="71.25">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="B92" s="2">
-        <v>0.7895833333333333</v>
+        <v>0.92083333333333339</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="99.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="71.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="B93" s="2">
-        <v>0.68680555555555556</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>205</v>
+        <v>328</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="71.25">
+      <c r="A94" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="C94" t="s">
+        <v>330</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H94" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="85.5">
-      <c r="A94" t="s">
-        <v>220</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="C94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" t="s">
+    <row r="95" spans="1:8" ht="71.25">
+      <c r="A95" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="99.75">
-      <c r="A95" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="C95" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H95" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H95">
-    <sortCondition ref="D2:D95"/>
+    <sortCondition descending="1" ref="A2:A95"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C37" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C84" r:id="rId3"/>
-    <hyperlink ref="C35" r:id="rId4"/>
-    <hyperlink ref="C39" r:id="rId5"/>
-    <hyperlink ref="C51" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="C52" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
@@ -4969,10 +5450,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5223,9 +5705,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5431,9 +5914,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5756,6 +6240,35 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5824,8 +6337,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5894,12 +6408,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6220,16 +6735,176 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="34.125" customWidth="1"/>
@@ -6546,9 +7221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -6897,10 +7573,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7177,9 +7854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -7339,6 +8017,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7432,6 +8111,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7594,6 +8274,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7687,6 +8368,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
